--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gnai2-P2ry12.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gnai2-P2ry12.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H2">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I2">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J2">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1444173333333333</v>
+        <v>0.2385586666666667</v>
       </c>
       <c r="N2">
-        <v>0.433252</v>
+        <v>0.715676</v>
       </c>
       <c r="O2">
-        <v>0.003554110791691976</v>
+        <v>0.003173413598159477</v>
       </c>
       <c r="P2">
-        <v>0.003583730627916089</v>
+        <v>0.003191469360920207</v>
       </c>
       <c r="Q2">
-        <v>21.91187466724222</v>
+        <v>34.53931219639333</v>
       </c>
       <c r="R2">
-        <v>197.20687200518</v>
+        <v>310.85380976754</v>
       </c>
       <c r="S2">
-        <v>0.0009598727256643746</v>
+        <v>0.0007711542084252733</v>
       </c>
       <c r="T2">
-        <v>0.0009974835769974502</v>
+        <v>0.0008010992844914868</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H3">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I3">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J3">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>17.275143</v>
+        <v>28.36841766666667</v>
       </c>
       <c r="N3">
-        <v>51.825429</v>
+        <v>85.105253</v>
       </c>
       <c r="O3">
-        <v>0.4251412953499726</v>
+        <v>0.377369322353974</v>
       </c>
       <c r="P3">
-        <v>0.4286844081785905</v>
+        <v>0.3795164395660363</v>
       </c>
       <c r="Q3">
-        <v>2621.089584869915</v>
+        <v>4107.273267400388</v>
       </c>
       <c r="R3">
-        <v>23589.80626382924</v>
+        <v>36965.45940660349</v>
       </c>
       <c r="S3">
-        <v>0.1148195871985716</v>
+        <v>0.09170249387997868</v>
       </c>
       <c r="T3">
-        <v>0.1193185820223505</v>
+        <v>0.09526343944014745</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H4">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I4">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J4">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>1.0075275</v>
+        <v>1.275895</v>
       </c>
       <c r="N4">
-        <v>2.015055</v>
+        <v>2.55179</v>
       </c>
       <c r="O4">
-        <v>0.02479525329837903</v>
+        <v>0.01697252336039082</v>
       </c>
       <c r="P4">
-        <v>0.01666793072030932</v>
+        <v>0.01137939458707931</v>
       </c>
       <c r="Q4">
-        <v>152.8681896711375</v>
+        <v>184.728294932975</v>
       </c>
       <c r="R4">
-        <v>917.2091380268249</v>
+        <v>1108.36976959785</v>
       </c>
       <c r="S4">
-        <v>0.006696551897787984</v>
+        <v>0.00412440181908614</v>
       </c>
       <c r="T4">
-        <v>0.004639295996894641</v>
+        <v>0.002856372357285323</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H5">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I5">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J5">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.20679833333334</v>
+        <v>45.29127766666667</v>
       </c>
       <c r="N5">
-        <v>66.620395</v>
+        <v>135.873833</v>
       </c>
       <c r="O5">
-        <v>0.5465093405599564</v>
+        <v>0.6024847406874758</v>
       </c>
       <c r="P5">
-        <v>0.551063930473184</v>
+        <v>0.6059126964859642</v>
       </c>
       <c r="Q5">
-        <v>3369.350275410548</v>
+        <v>6557.420868252688</v>
       </c>
       <c r="R5">
-        <v>30324.15247869493</v>
+        <v>59016.78781427418</v>
       </c>
       <c r="S5">
-        <v>0.1475979340741354</v>
+        <v>0.1464065836116103</v>
       </c>
       <c r="T5">
-        <v>0.153381288270067</v>
+        <v>0.1520917711330487</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>82.24887100000001</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H6">
         <v>246.746613</v>
       </c>
       <c r="I6">
-        <v>0.146403824289839</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J6">
-        <v>0.150882936320401</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.1444173333333333</v>
+        <v>0.2385586666666667</v>
       </c>
       <c r="N6">
-        <v>0.433252</v>
+        <v>0.715676</v>
       </c>
       <c r="O6">
-        <v>0.003554110791691976</v>
+        <v>0.003173413598159477</v>
       </c>
       <c r="P6">
-        <v>0.003583730627916089</v>
+        <v>0.003191469360920207</v>
       </c>
       <c r="Q6">
-        <v>11.87816261949733</v>
+        <v>19.62118100059866</v>
       </c>
       <c r="R6">
-        <v>106.903463575476</v>
+        <v>176.590629005388</v>
       </c>
       <c r="S6">
-        <v>0.0005203354118534926</v>
+        <v>0.0004380792592756286</v>
       </c>
       <c r="T6">
-        <v>0.0005407238001213339</v>
+        <v>0.0004550905348398602</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>82.24887100000001</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H7">
         <v>246.746613</v>
       </c>
       <c r="I7">
-        <v>0.146403824289839</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J7">
-        <v>0.150882936320401</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.275143</v>
+        <v>28.36841766666667</v>
       </c>
       <c r="N7">
-        <v>51.825429</v>
+        <v>85.105253</v>
       </c>
       <c r="O7">
-        <v>0.4251412953499726</v>
+        <v>0.377369322353974</v>
       </c>
       <c r="P7">
-        <v>0.4286844081785905</v>
+        <v>0.3795164395660363</v>
       </c>
       <c r="Q7">
-        <v>1420.861008113553</v>
+        <v>2333.270325139788</v>
       </c>
       <c r="R7">
-        <v>12787.74907302198</v>
+        <v>20999.43292625809</v>
       </c>
       <c r="S7">
-        <v>0.06224231150277193</v>
+        <v>0.05209458776695736</v>
       </c>
       <c r="T7">
-        <v>0.06468116226075905</v>
+        <v>0.05411749884787476</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,46 +912,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>82.24887100000001</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H8">
         <v>246.746613</v>
       </c>
       <c r="I8">
-        <v>0.146403824289839</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J8">
-        <v>0.150882936320401</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>1.0075275</v>
+        <v>1.275895</v>
       </c>
       <c r="N8">
-        <v>2.015055</v>
+        <v>2.55179</v>
       </c>
       <c r="O8">
-        <v>0.02479525329837903</v>
+        <v>0.01697252336039082</v>
       </c>
       <c r="P8">
-        <v>0.01666793072030932</v>
+        <v>0.01137939458707931</v>
       </c>
       <c r="Q8">
-        <v>82.8679993764525</v>
+        <v>104.940923264545</v>
       </c>
       <c r="R8">
-        <v>497.207996258715</v>
+        <v>629.64553958727</v>
       </c>
       <c r="S8">
-        <v>0.003630119907117935</v>
+        <v>0.002343000756683799</v>
       </c>
       <c r="T8">
-        <v>0.002514906329465287</v>
+        <v>0.001622655329924445</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>82.24887100000001</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H9">
         <v>246.746613</v>
       </c>
       <c r="I9">
-        <v>0.146403824289839</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J9">
-        <v>0.150882936320401</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>22.20679833333334</v>
+        <v>45.29127766666667</v>
       </c>
       <c r="N9">
-        <v>66.620395</v>
+        <v>135.873833</v>
       </c>
       <c r="O9">
-        <v>0.5465093405599564</v>
+        <v>0.6024847406874758</v>
       </c>
       <c r="P9">
-        <v>0.551063930473184</v>
+        <v>0.6059126964859642</v>
       </c>
       <c r="Q9">
-        <v>1826.484091441349</v>
+        <v>3725.156454230847</v>
       </c>
       <c r="R9">
-        <v>16438.35682297214</v>
+        <v>33526.40808807762</v>
       </c>
       <c r="S9">
-        <v>0.08001105746809564</v>
+        <v>0.0831710272743259</v>
       </c>
       <c r="T9">
-        <v>0.0831461439300553</v>
+        <v>0.08640068317326813</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,46 +1036,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>123.444321</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H10">
-        <v>370.332963</v>
+        <v>491.577271</v>
       </c>
       <c r="I10">
-        <v>0.2197321429647646</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J10">
-        <v>0.2264546783208506</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.1444173333333333</v>
+        <v>0.2385586666666667</v>
       </c>
       <c r="N10">
-        <v>0.433252</v>
+        <v>0.715676</v>
       </c>
       <c r="O10">
-        <v>0.003554110791691976</v>
+        <v>0.003173413598159477</v>
       </c>
       <c r="P10">
-        <v>0.003583730627916089</v>
+        <v>0.003191469360920207</v>
       </c>
       <c r="Q10">
-        <v>17.827499653964</v>
+        <v>39.09000611113289</v>
       </c>
       <c r="R10">
-        <v>160.447496885676</v>
+        <v>351.810055000196</v>
       </c>
       <c r="S10">
-        <v>0.0007809523805926739</v>
+        <v>0.0008727568907153145</v>
       </c>
       <c r="T10">
-        <v>0.0008115525665333179</v>
+        <v>0.0009066473515261946</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>123.444321</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H11">
-        <v>370.332963</v>
+        <v>491.577271</v>
       </c>
       <c r="I11">
-        <v>0.2197321429647646</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J11">
-        <v>0.2264546783208506</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>17.275143</v>
+        <v>28.36841766666667</v>
       </c>
       <c r="N11">
-        <v>51.825429</v>
+        <v>85.105253</v>
       </c>
       <c r="O11">
-        <v>0.4251412953499726</v>
+        <v>0.377369322353974</v>
       </c>
       <c r="P11">
-        <v>0.4286844081785905</v>
+        <v>0.3795164395660363</v>
       </c>
       <c r="Q11">
-        <v>2132.518297812903</v>
+        <v>4648.423113056063</v>
       </c>
       <c r="R11">
-        <v>19192.66468031613</v>
+        <v>41835.80801750456</v>
       </c>
       <c r="S11">
-        <v>0.09341720789006538</v>
+        <v>0.1037846679109265</v>
       </c>
       <c r="T11">
-        <v>0.09707758975524694</v>
+        <v>0.1078147824342534</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>123.444321</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H12">
-        <v>370.332963</v>
+        <v>491.577271</v>
       </c>
       <c r="I12">
-        <v>0.2197321429647646</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J12">
-        <v>0.2264546783208506</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M12">
-        <v>1.0075275</v>
+        <v>1.275895</v>
       </c>
       <c r="N12">
-        <v>2.015055</v>
+        <v>2.55179</v>
       </c>
       <c r="O12">
-        <v>0.02479525329837903</v>
+        <v>0.01697252336039082</v>
       </c>
       <c r="P12">
-        <v>0.01666793072030932</v>
+        <v>0.01137939458707931</v>
       </c>
       <c r="Q12">
-        <v>124.3735481263275</v>
+        <v>209.0669940608483</v>
       </c>
       <c r="R12">
-        <v>746.241288757965</v>
+        <v>1254.40196436509</v>
       </c>
       <c r="S12">
-        <v>0.005448314142606972</v>
+        <v>0.004667808420622808</v>
       </c>
       <c r="T12">
-        <v>0.003774530889541871</v>
+        <v>0.003232710954609387</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>123.444321</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H13">
-        <v>370.332963</v>
+        <v>491.577271</v>
       </c>
       <c r="I13">
-        <v>0.2197321429647646</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J13">
-        <v>0.2264546783208506</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>22.20679833333334</v>
+        <v>45.29127766666667</v>
       </c>
       <c r="N13">
-        <v>66.620395</v>
+        <v>135.873833</v>
       </c>
       <c r="O13">
-        <v>0.5465093405599564</v>
+        <v>0.6024847406874758</v>
       </c>
       <c r="P13">
-        <v>0.551063930473184</v>
+        <v>0.6059126964859642</v>
       </c>
       <c r="Q13">
-        <v>2741.303141842265</v>
+        <v>7421.387558494416</v>
       </c>
       <c r="R13">
-        <v>24671.72827658039</v>
+        <v>66792.48802644973</v>
       </c>
       <c r="S13">
-        <v>0.1200856685514995</v>
+        <v>0.1656962424597889</v>
       </c>
       <c r="T13">
-        <v>0.1247910051095285</v>
+        <v>0.172130476404354</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>50.0323125</v>
+        <v>57.0238095</v>
       </c>
       <c r="H14">
-        <v>100.064625</v>
+        <v>114.047619</v>
       </c>
       <c r="I14">
-        <v>0.08905802352064279</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="J14">
-        <v>0.06118845668531954</v>
+        <v>0.06590860906562239</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.1444173333333333</v>
+        <v>0.2385586666666667</v>
       </c>
       <c r="N14">
-        <v>0.433252</v>
+        <v>0.715676</v>
       </c>
       <c r="O14">
-        <v>0.003554110791691976</v>
+        <v>0.003173413598159477</v>
       </c>
       <c r="P14">
-        <v>0.003583730627916089</v>
+        <v>0.003191469360920207</v>
       </c>
       <c r="Q14">
-        <v>7.22553315175</v>
+        <v>13.603523962574</v>
       </c>
       <c r="R14">
-        <v>43.3531989105</v>
+        <v>81.621143775444</v>
       </c>
       <c r="S14">
-        <v>0.0003165220824814744</v>
+        <v>0.0003037239043297574</v>
       </c>
       <c r="T14">
-        <v>0.0002192829462980966</v>
+        <v>0.0002103453064538016</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>50.0323125</v>
+        <v>57.0238095</v>
       </c>
       <c r="H15">
-        <v>100.064625</v>
+        <v>114.047619</v>
       </c>
       <c r="I15">
-        <v>0.08905802352064279</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="J15">
-        <v>0.06118845668531954</v>
+        <v>0.06590860906562239</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>17.275143</v>
+        <v>28.36841766666667</v>
       </c>
       <c r="N15">
-        <v>51.825429</v>
+        <v>85.105253</v>
       </c>
       <c r="O15">
-        <v>0.4251412953499726</v>
+        <v>0.377369322353974</v>
       </c>
       <c r="P15">
-        <v>0.4286844081785905</v>
+        <v>0.3795164395660363</v>
       </c>
       <c r="Q15">
-        <v>864.3153530581875</v>
+        <v>1617.675244840435</v>
       </c>
       <c r="R15">
-        <v>5185.892118349126</v>
+        <v>9706.051469042608</v>
       </c>
       <c r="S15">
-        <v>0.0378622434808744</v>
+        <v>0.03611760031093931</v>
       </c>
       <c r="T15">
-        <v>0.02623053734150753</v>
+        <v>0.02501340064933479</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>50.0323125</v>
+        <v>57.0238095</v>
       </c>
       <c r="H16">
-        <v>100.064625</v>
+        <v>114.047619</v>
       </c>
       <c r="I16">
-        <v>0.08905802352064279</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="J16">
-        <v>0.06118845668531954</v>
+        <v>0.06590860906562239</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M16">
-        <v>1.0075275</v>
+        <v>1.275895</v>
       </c>
       <c r="N16">
-        <v>2.015055</v>
+        <v>2.55179</v>
       </c>
       <c r="O16">
-        <v>0.02479525329837903</v>
+        <v>0.01697252336039082</v>
       </c>
       <c r="P16">
-        <v>0.01666793072030932</v>
+        <v>0.01137939458707931</v>
       </c>
       <c r="Q16">
-        <v>50.40893073234375</v>
+        <v>72.7563934220025</v>
       </c>
       <c r="R16">
-        <v>201.635722929375</v>
+        <v>291.02557368801</v>
       </c>
       <c r="S16">
-        <v>0.002208216251447336</v>
+        <v>0.001624421431967046</v>
       </c>
       <c r="T16">
-        <v>0.001019884956913554</v>
+        <v>0.00075000006924327</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>50.0323125</v>
+        <v>57.0238095</v>
       </c>
       <c r="H17">
-        <v>100.064625</v>
+        <v>114.047619</v>
       </c>
       <c r="I17">
-        <v>0.08905802352064279</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="J17">
-        <v>0.06118845668531954</v>
+        <v>0.06590860906562239</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>22.20679833333334</v>
+        <v>45.29127766666667</v>
       </c>
       <c r="N17">
-        <v>66.620395</v>
+        <v>135.873833</v>
       </c>
       <c r="O17">
-        <v>0.5465093405599564</v>
+        <v>0.6024847406874758</v>
       </c>
       <c r="P17">
-        <v>0.551063930473184</v>
+        <v>0.6059126964859642</v>
       </c>
       <c r="Q17">
-        <v>1111.057473837813</v>
+        <v>2582.681189675604</v>
       </c>
       <c r="R17">
-        <v>6666.344843026875</v>
+        <v>15496.08713805363</v>
       </c>
       <c r="S17">
-        <v>0.04867104170583958</v>
+        <v>0.05766314792589025</v>
       </c>
       <c r="T17">
-        <v>0.03371875144060036</v>
+        <v>0.03993486304059053</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,46 +1532,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>154.3429766666667</v>
+        <v>147.8896333333333</v>
       </c>
       <c r="H18">
-        <v>463.02893</v>
+        <v>443.6689</v>
       </c>
       <c r="I18">
-        <v>0.2747320633285943</v>
+        <v>0.2482183021684772</v>
       </c>
       <c r="J18">
-        <v>0.2831372788071194</v>
+        <v>0.2563981636887546</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>0.1444173333333333</v>
+        <v>0.2385586666666667</v>
       </c>
       <c r="N18">
-        <v>0.433252</v>
+        <v>0.715676</v>
       </c>
       <c r="O18">
-        <v>0.003554110791691976</v>
+        <v>0.003173413598159477</v>
       </c>
       <c r="P18">
-        <v>0.003583730627916089</v>
+        <v>0.003191469360920207</v>
       </c>
       <c r="Q18">
-        <v>22.28980110892888</v>
+        <v>35.28035374182222</v>
       </c>
       <c r="R18">
-        <v>200.60820998036</v>
+        <v>317.5231836764</v>
       </c>
       <c r="S18">
-        <v>0.0009764281910999603</v>
+        <v>0.0007876993354135036</v>
       </c>
       <c r="T18">
-        <v>0.001014687737965891</v>
+        <v>0.0008182868836088641</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>154.3429766666667</v>
+        <v>147.8896333333333</v>
       </c>
       <c r="H19">
-        <v>463.02893</v>
+        <v>443.6689</v>
       </c>
       <c r="I19">
-        <v>0.2747320633285943</v>
+        <v>0.2482183021684772</v>
       </c>
       <c r="J19">
-        <v>0.2831372788071194</v>
+        <v>0.2563981636887546</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>17.275143</v>
+        <v>28.36841766666667</v>
       </c>
       <c r="N19">
-        <v>51.825429</v>
+        <v>85.105253</v>
       </c>
       <c r="O19">
-        <v>0.4251412953499726</v>
+        <v>0.377369322353974</v>
       </c>
       <c r="P19">
-        <v>0.4286844081785905</v>
+        <v>0.3795164395660363</v>
       </c>
       <c r="Q19">
-        <v>2666.29699296233</v>
+        <v>4195.394886970189</v>
       </c>
       <c r="R19">
-        <v>23996.67293666097</v>
+        <v>37758.5539827317</v>
       </c>
       <c r="S19">
-        <v>0.1167999452776893</v>
+        <v>0.09366997248517218</v>
       </c>
       <c r="T19">
-        <v>0.1213765367987266</v>
+        <v>0.0973073181944259</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,46 +1656,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>154.3429766666667</v>
+        <v>147.8896333333333</v>
       </c>
       <c r="H20">
-        <v>463.02893</v>
+        <v>443.6689</v>
       </c>
       <c r="I20">
-        <v>0.2747320633285943</v>
+        <v>0.2482183021684772</v>
       </c>
       <c r="J20">
-        <v>0.2831372788071194</v>
+        <v>0.2563981636887546</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M20">
-        <v>1.0075275</v>
+        <v>1.275895</v>
       </c>
       <c r="N20">
-        <v>2.015055</v>
+        <v>2.55179</v>
       </c>
       <c r="O20">
-        <v>0.02479525329837903</v>
+        <v>0.01697252336039082</v>
       </c>
       <c r="P20">
-        <v>0.01666793072030932</v>
+        <v>0.01137939458707931</v>
       </c>
       <c r="Q20">
-        <v>155.504793423525</v>
+        <v>188.6916437218333</v>
       </c>
       <c r="R20">
-        <v>933.0287605411499</v>
+        <v>1132.149862331</v>
       </c>
       <c r="S20">
-        <v>0.006812051099418805</v>
+        <v>0.004212890932031027</v>
       </c>
       <c r="T20">
-        <v>0.004719312547493972</v>
+        <v>0.00291765587601689</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>154.3429766666667</v>
+        <v>147.8896333333333</v>
       </c>
       <c r="H21">
-        <v>463.02893</v>
+        <v>443.6689</v>
       </c>
       <c r="I21">
-        <v>0.2747320633285943</v>
+        <v>0.2482183021684772</v>
       </c>
       <c r="J21">
-        <v>0.2831372788071194</v>
+        <v>0.2563981636887546</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>22.20679833333334</v>
+        <v>45.29127766666667</v>
       </c>
       <c r="N21">
-        <v>66.620395</v>
+        <v>135.873833</v>
       </c>
       <c r="O21">
-        <v>0.5465093405599564</v>
+        <v>0.6024847406874758</v>
       </c>
       <c r="P21">
-        <v>0.551063930473184</v>
+        <v>0.6059126964859642</v>
       </c>
       <c r="Q21">
-        <v>3427.463357003039</v>
+        <v>6698.110447321522</v>
       </c>
       <c r="R21">
-        <v>30847.17021302735</v>
+        <v>60282.9940258937</v>
       </c>
       <c r="S21">
-        <v>0.1501436387603862</v>
+        <v>0.1495477394158605</v>
       </c>
       <c r="T21">
-        <v>0.156026741722933</v>
+        <v>0.1553549027347029</v>
       </c>
     </row>
   </sheetData>
